--- a/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
@@ -498,22 +498,22 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -571,7 +572,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -608,7 +609,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -645,7 +646,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -682,7 +683,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -719,7 +720,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -756,7 +757,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -793,7 +794,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -834,7 +835,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -871,7 +872,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -908,7 +909,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -949,7 +950,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -994,7 +995,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1051,7 +1052,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1088,7 +1089,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1125,7 +1126,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1162,7 +1163,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1199,7 +1200,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1236,7 +1237,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1273,7 +1274,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1314,7 +1315,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1351,7 +1352,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1388,7 +1389,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1429,7 +1430,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1474,7 +1475,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1531,7 +1532,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1568,7 +1569,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1605,7 +1606,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1642,7 +1643,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1679,7 +1680,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1716,7 +1717,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1794,7 +1795,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1831,7 +1832,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1868,7 +1869,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1909,7 +1910,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1954,7 +1955,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2011,7 +2012,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2048,7 +2049,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2085,7 +2086,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2122,7 +2123,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2159,7 +2160,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2196,7 +2197,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2233,7 +2234,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2274,7 +2275,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2311,7 +2312,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2348,7 +2349,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2389,7 +2390,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2434,7 +2435,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2491,7 +2492,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2528,7 +2529,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2565,7 +2566,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2602,7 +2603,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2639,7 +2640,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2676,7 +2677,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2713,7 +2714,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2754,7 +2755,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2791,7 +2792,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2869,7 +2870,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2914,7 +2915,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,7 +2972,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3045,7 +3046,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3082,7 +3083,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3119,7 +3120,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3156,7 +3157,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3197,7 +3198,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3234,7 +3235,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3271,7 +3272,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3312,7 +3313,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3357,7 +3358,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3414,7 +3415,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3451,7 +3452,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3488,7 +3489,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3525,7 +3526,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3562,7 +3563,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3599,7 +3600,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3636,7 +3637,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3677,7 +3678,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3714,7 +3715,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3751,7 +3752,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3837,7 +3838,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3894,7 +3895,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3931,7 +3932,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3968,7 +3969,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4005,7 +4006,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4046,7 +4047,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4087,7 +4088,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4124,7 +4125,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4161,7 +4162,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4202,7 +4203,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4247,7 +4248,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4304,7 +4305,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4341,7 +4342,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4419,7 +4420,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4456,7 +4457,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4493,7 +4494,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4534,7 +4535,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4571,7 +4572,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4608,7 +4609,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4649,7 +4650,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4694,7 +4695,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4751,7 +4752,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4788,7 +4789,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4825,7 +4826,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4862,7 +4863,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4903,7 +4904,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4944,7 +4945,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4981,7 +4982,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5059,7 +5060,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5104,7 +5105,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5161,7 +5162,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5198,7 +5199,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5239,7 +5240,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5276,7 +5277,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5313,7 +5314,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5350,7 +5351,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5391,7 +5392,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5428,7 +5429,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5465,7 +5466,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5506,7 +5507,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5551,7 +5552,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -5608,7 +5609,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5645,7 +5646,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5686,7 +5687,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5723,7 +5724,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5797,7 +5798,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5838,7 +5839,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5875,7 +5876,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5912,7 +5913,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5953,7 +5954,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5998,7 +5999,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6055,7 +6056,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6092,7 +6093,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6129,7 +6130,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6166,7 +6167,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6203,7 +6204,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44764</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6240,7 +6241,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6281,7 +6282,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6318,7 +6319,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6355,7 +6356,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6396,7 +6397,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -6441,7 +6442,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6498,7 +6499,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6535,7 +6536,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6576,7 +6577,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6613,7 +6614,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6650,7 +6651,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6687,7 +6688,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6728,7 +6729,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6765,7 +6766,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6802,7 +6803,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6843,7 +6844,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -6888,7 +6889,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -6945,7 +6946,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6982,7 +6983,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7019,7 +7020,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7056,7 +7057,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7093,7 +7094,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7134,7 +7135,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7171,7 +7172,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7208,7 +7209,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7249,7 +7250,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7294,7 +7295,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7351,7 +7352,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7388,7 +7389,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7425,7 +7426,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7462,7 +7463,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7499,7 +7500,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7540,7 +7541,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7577,7 +7578,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7614,7 +7615,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7655,7 +7656,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -7700,7 +7701,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -7757,7 +7758,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7794,7 +7795,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7831,7 +7832,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7905,7 +7906,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7946,7 +7947,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7983,7 +7984,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8020,7 +8021,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8061,7 +8062,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8106,7 +8107,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -8163,7 +8164,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8200,7 +8201,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8237,7 +8238,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8274,7 +8275,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8311,7 +8312,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8352,7 +8353,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8389,7 +8390,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8426,7 +8427,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8467,7 +8468,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -8512,7 +8513,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8569,7 +8570,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8606,7 +8607,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8647,7 +8648,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8684,7 +8685,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8721,7 +8722,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8762,7 +8763,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8799,7 +8800,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8836,7 +8837,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8877,7 +8878,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8922,7 +8923,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8979,7 +8980,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9016,7 +9017,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9053,7 +9054,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9090,7 +9091,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9127,7 +9128,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9168,7 +9169,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9205,7 +9206,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9242,7 +9243,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9283,7 +9284,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -9328,7 +9329,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -9385,7 +9386,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9422,7 +9423,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9459,7 +9460,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9496,7 +9497,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9533,7 +9534,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9574,7 +9575,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9611,7 +9612,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9648,7 +9649,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9689,7 +9690,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9734,7 +9735,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C229" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -572,7 +571,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -609,7 +608,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -646,7 +645,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -683,7 +682,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -720,7 +719,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -757,7 +756,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -794,7 +793,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -835,7 +834,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -872,7 +871,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -909,7 +908,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -950,7 +949,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -995,7 +994,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1052,7 +1051,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1089,7 +1088,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1126,7 +1125,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1163,7 +1162,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1200,7 +1199,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1237,7 +1236,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1274,7 +1273,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1315,7 +1314,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1352,7 +1351,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1389,7 +1388,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1430,7 +1429,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1475,7 +1474,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1532,7 +1531,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1569,7 +1568,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1606,7 +1605,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1643,7 +1642,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1680,7 +1679,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1717,7 +1716,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1754,7 +1753,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1795,7 +1794,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1832,7 +1831,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1869,7 +1868,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1910,7 +1909,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1955,7 +1954,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2012,7 +2011,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2049,7 +2048,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2086,7 +2085,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2123,7 +2122,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2160,7 +2159,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2197,7 +2196,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2234,7 +2233,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2275,7 +2274,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2312,7 +2311,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2349,7 +2348,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2390,7 +2389,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2435,7 +2434,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2492,7 +2491,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2529,7 +2528,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2566,7 +2565,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2603,7 +2602,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2640,7 +2639,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2677,7 +2676,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2714,7 +2713,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2755,7 +2754,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2792,7 +2791,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2829,7 +2828,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2870,7 +2869,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2915,7 +2914,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2972,7 +2971,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3009,7 +3008,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3046,7 +3045,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3083,7 +3082,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3120,7 +3119,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3157,7 +3156,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3198,7 +3197,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3235,7 +3234,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3272,7 +3271,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3313,7 +3312,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3358,7 +3357,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3415,7 +3414,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3452,7 +3451,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3489,7 +3488,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3526,7 +3525,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3563,7 +3562,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3600,7 +3599,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3637,7 +3636,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3678,7 +3677,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3715,7 +3714,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3752,7 +3751,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3793,7 +3792,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3838,7 +3837,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3895,7 +3894,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3932,7 +3931,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3969,7 +3968,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4006,7 +4005,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4047,7 +4046,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4088,7 +4087,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4125,7 +4124,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4162,7 +4161,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4203,7 +4202,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4248,7 +4247,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4305,7 +4304,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4342,7 +4341,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4383,7 +4382,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44730</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4420,7 +4419,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4457,7 +4456,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4494,7 +4493,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4535,7 +4534,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4572,7 +4571,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4609,7 +4608,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4650,7 +4649,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4695,7 +4694,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4752,7 +4751,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4789,7 +4788,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4826,7 +4825,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4863,7 +4862,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4904,7 +4903,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4945,7 +4944,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4982,7 +4981,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5019,7 +5018,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5060,7 +5059,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5105,7 +5104,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5162,7 +5161,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5199,7 +5198,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5240,7 +5239,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44730</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5277,7 +5276,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5314,7 +5313,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5351,7 +5350,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5392,7 +5391,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5429,7 +5428,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5466,7 +5465,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5507,7 +5506,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5552,7 +5551,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -5609,7 +5608,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5646,7 +5645,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5687,7 +5686,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>44730</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5724,7 +5723,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5761,7 +5760,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5798,7 +5797,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5839,7 +5838,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5876,7 +5875,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5913,7 +5912,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5954,7 +5953,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5999,7 +5998,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6056,7 +6055,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6093,7 +6092,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6130,7 +6129,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6167,7 +6166,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6204,7 +6203,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>44764</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6241,7 +6240,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6282,7 +6281,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6319,7 +6318,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6356,7 +6355,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6397,7 +6396,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -6442,7 +6441,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6499,7 +6498,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6536,7 +6535,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6577,7 +6576,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>44730</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6614,7 +6613,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6651,7 +6650,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6688,7 +6687,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6729,7 +6728,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6766,7 +6765,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6803,7 +6802,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6844,7 +6843,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -6889,7 +6888,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -6946,7 +6945,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6983,7 +6982,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7020,7 +7019,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7057,7 +7056,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7094,7 +7093,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7135,7 +7134,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7172,7 +7171,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7209,7 +7208,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7250,7 +7249,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7295,7 +7294,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7352,7 +7351,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7389,7 +7388,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7426,7 +7425,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7463,7 +7462,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7500,7 +7499,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7541,7 +7540,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7578,7 +7577,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7615,7 +7614,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7656,7 +7655,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -7701,7 +7700,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -7758,7 +7757,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7795,7 +7794,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7832,7 +7831,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7869,7 +7868,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7906,7 +7905,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7947,7 +7946,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7984,7 +7983,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8021,7 +8020,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8062,7 +8061,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8107,7 +8106,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -8164,7 +8163,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8201,7 +8200,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8238,7 +8237,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8275,7 +8274,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8312,7 +8311,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8353,7 +8352,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8390,7 +8389,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8427,7 +8426,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8468,7 +8467,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -8513,7 +8512,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8570,7 +8569,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8607,7 +8606,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8648,7 +8647,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8685,7 +8684,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8722,7 +8721,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8763,7 +8762,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8800,7 +8799,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8837,7 +8836,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8878,7 +8877,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8923,7 +8922,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8980,7 +8979,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9017,7 +9016,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9054,7 +9053,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9091,7 +9090,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9128,7 +9127,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9169,7 +9168,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9206,7 +9205,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9243,7 +9242,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9284,7 +9283,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -9329,7 +9328,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -9386,7 +9385,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9423,7 +9422,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9460,7 +9459,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9497,7 +9496,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9534,7 +9533,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9575,7 +9574,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9612,7 +9611,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9649,7 +9648,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9690,7 +9689,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9735,7 +9734,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="C229" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W22-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -571,7 +572,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -608,7 +609,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -645,7 +646,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -682,7 +683,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -719,7 +720,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -756,7 +757,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -793,7 +794,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -834,7 +835,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -871,7 +872,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -908,7 +909,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -949,7 +950,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -994,7 +995,7 @@
           <t>FAR WAE W22-02MgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1051,7 +1052,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1088,7 +1089,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1125,7 +1126,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1162,7 +1163,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1199,7 +1200,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1236,7 +1237,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1273,7 +1274,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1314,7 +1315,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1351,7 +1352,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1388,7 +1389,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1429,7 +1430,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1474,7 +1475,7 @@
           <t>FAR WAE W22-02MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1531,7 +1532,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1568,7 +1569,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1605,7 +1606,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1642,7 +1643,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1679,7 +1680,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1716,7 +1717,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1794,7 +1795,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1831,7 +1832,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1868,7 +1869,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1909,7 +1910,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1954,7 +1955,7 @@
           <t>FAR WAE W22-02MgmtStandardCvMowhawk</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -2011,7 +2012,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2048,7 +2049,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2085,7 +2086,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2122,7 +2123,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2159,7 +2160,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2196,7 +2197,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2233,7 +2234,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2274,7 +2275,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2311,7 +2312,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2348,7 +2349,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2389,7 +2390,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2434,7 +2435,7 @@
           <t>FAR WAE W22-02MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2491,7 +2492,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2528,7 +2529,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2565,7 +2566,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2602,7 +2603,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2639,7 +2640,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2676,7 +2677,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2713,7 +2714,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2754,7 +2755,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2791,7 +2792,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2869,7 +2870,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2914,7 +2915,7 @@
           <t>FAR WAE W22-02MgmtStandardCvDenison</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,7 +2972,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3045,7 +3046,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3082,7 +3083,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3119,7 +3120,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3156,7 +3157,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3197,7 +3198,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3234,7 +3235,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3271,7 +3272,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3312,7 +3313,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3357,7 +3358,7 @@
           <t>FAR WAE W22-02MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3414,7 +3415,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3451,7 +3452,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3488,7 +3489,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3525,7 +3526,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3562,7 +3563,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3599,7 +3600,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3636,7 +3637,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3677,7 +3678,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3714,7 +3715,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3751,7 +3752,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3837,7 +3838,7 @@
           <t>FAR WAE W22-02MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3894,7 +3895,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3931,7 +3932,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3968,7 +3969,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4005,7 +4006,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4046,7 +4047,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4087,7 +4088,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4124,7 +4125,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4161,7 +4162,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4202,7 +4203,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4247,7 +4248,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4304,7 +4305,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4341,7 +4342,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4419,7 +4420,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4456,7 +4457,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4493,7 +4494,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4534,7 +4535,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4571,7 +4572,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4608,7 +4609,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4649,7 +4650,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4694,7 +4695,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvRockstar</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4751,7 +4752,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4788,7 +4789,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4825,7 +4826,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4862,7 +4863,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4903,7 +4904,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4944,7 +4945,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4981,7 +4982,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5059,7 +5060,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5104,7 +5105,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvMowhawk</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5161,7 +5162,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5198,7 +5199,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5239,7 +5240,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5276,7 +5277,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5313,7 +5314,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5350,7 +5351,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5391,7 +5392,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5428,7 +5429,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5465,7 +5466,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5506,7 +5507,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5551,7 +5552,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -5608,7 +5609,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5645,7 +5646,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5686,7 +5687,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5723,7 +5724,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5797,7 +5798,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5838,7 +5839,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5875,7 +5876,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5912,7 +5913,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5953,7 +5954,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5998,7 +5999,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvDenison</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6055,7 +6056,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6092,7 +6093,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6129,7 +6130,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6166,7 +6167,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6203,7 +6204,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44764</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6240,7 +6241,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6281,7 +6282,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6318,7 +6319,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6355,7 +6356,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6396,7 +6397,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -6441,7 +6442,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6498,7 +6499,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6535,7 +6536,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6576,7 +6577,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44730</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6613,7 +6614,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6650,7 +6651,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6687,7 +6688,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6728,7 +6729,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6765,7 +6766,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6802,7 +6803,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6843,7 +6844,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -6888,7 +6889,7 @@
           <t>FAR WAE W22-02MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -6945,7 +6946,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6982,7 +6983,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7019,7 +7020,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7056,7 +7057,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7093,7 +7094,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7134,7 +7135,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7171,7 +7172,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7208,7 +7209,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7249,7 +7250,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7294,7 +7295,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7351,7 +7352,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7388,7 +7389,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7425,7 +7426,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7462,7 +7463,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7499,7 +7500,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7540,7 +7541,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7577,7 +7578,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7614,7 +7615,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7655,7 +7656,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -7700,7 +7701,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -7757,7 +7758,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7794,7 +7795,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7831,7 +7832,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7905,7 +7906,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7946,7 +7947,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7983,7 +7984,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8020,7 +8021,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8061,7 +8062,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8106,7 +8107,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvMowhawk</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -8163,7 +8164,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8200,7 +8201,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8237,7 +8238,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8274,7 +8275,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8311,7 +8312,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8352,7 +8353,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8389,7 +8390,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8426,7 +8427,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8467,7 +8468,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -8512,7 +8513,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8569,7 +8570,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8606,7 +8607,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8647,7 +8648,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8684,7 +8685,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8721,7 +8722,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8762,7 +8763,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8799,7 +8800,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8836,7 +8837,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8877,7 +8878,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8922,7 +8923,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvDenison</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8979,7 +8980,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9016,7 +9017,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9053,7 +9054,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9090,7 +9091,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9127,7 +9128,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44816</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9168,7 +9169,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9205,7 +9206,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9242,7 +9243,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9283,7 +9284,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -9328,7 +9329,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -9385,7 +9386,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9422,7 +9423,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44726</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9459,7 +9460,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9496,7 +9497,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44740</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9533,7 +9534,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9574,7 +9575,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9611,7 +9612,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>44847</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9648,7 +9649,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44861</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9689,7 +9690,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44902</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9734,7 +9735,7 @@
           <t>FAR WAE W22-02MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44903</v>
       </c>
       <c r="C229" t="inlineStr">
